--- a/raw_data/20200818_saline/20200818_Sensor1_Test_27.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_27.xlsx
@@ -1,1217 +1,1633 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3E345E-6050-476C-82A9-EDBFC6AB387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>23587.576885</v>
+        <v>23587.576884999999</v>
       </c>
       <c r="B2" s="1">
-        <v>6.552105</v>
+        <v>6.5521050000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>898.679000</v>
+        <v>898.67899999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.115000</v>
+        <v>-202.11500000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>23597.949222</v>
+        <v>23597.949221999999</v>
       </c>
       <c r="G2" s="1">
-        <v>6.554986</v>
+        <v>6.5549860000000004</v>
       </c>
       <c r="H2" s="1">
-        <v>916.651000</v>
+        <v>916.65099999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-170.667000</v>
+        <v>-170.667</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>23608.672232</v>
+        <v>23608.672232000001</v>
       </c>
       <c r="L2" s="1">
-        <v>6.557965</v>
+        <v>6.5579650000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>939.714000</v>
+        <v>939.71400000000006</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.693000</v>
+        <v>-120.693</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>23618.934956</v>
+        <v>23618.934956000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.560815</v>
+        <v>6.5608149999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>946.577000</v>
+        <v>946.577</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.134000</v>
+        <v>-104.134</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>23629.202142</v>
+        <v>23629.202141999998</v>
       </c>
       <c r="V2" s="1">
-        <v>6.563667</v>
+        <v>6.5636669999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>953.016000</v>
+        <v>953.01599999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.806000</v>
+        <v>-88.805999999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>23639.305647</v>
+        <v>23639.305647000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.566474</v>
+        <v>6.5664740000000004</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.978000</v>
+        <v>959.97799999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.854200</v>
+        <v>-76.854200000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>23649.566386</v>
+        <v>23649.566385999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.569324</v>
+        <v>6.5693239999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.545000</v>
+        <v>964.54499999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.527900</v>
+        <v>-74.527900000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>23659.317734</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.572033</v>
+        <v>6.5720330000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>971.616000</v>
+        <v>971.61599999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.069800</v>
+        <v>-79.069800000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>23670.227239</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.575063</v>
+        <v>6.5750630000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.539000</v>
+        <v>979.53899999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.541700</v>
+        <v>-90.541700000000006</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>23681.208696</v>
+        <v>23681.208696000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.578114</v>
+        <v>6.5781140000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>989.220000</v>
+        <v>989.22</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.081000</v>
+        <v>-108.081</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>23692.414283</v>
+        <v>23692.414282999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>6.581226</v>
       </c>
       <c r="BA2" s="1">
-        <v>997.317000</v>
+        <v>997.31700000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.683000</v>
+        <v>-123.68300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>23703.361027</v>
+        <v>23703.361026999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.584267</v>
+        <v>6.5842669999999996</v>
       </c>
       <c r="BF2" s="1">
-        <v>1035.390000</v>
+        <v>1035.3900000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.697000</v>
+        <v>-195.697</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>23714.459997</v>
+        <v>23714.459997000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.587350</v>
+        <v>6.5873499999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1101.620000</v>
+        <v>1101.6199999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-312.834000</v>
+        <v>-312.834</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>23725.574317</v>
+        <v>23725.574316999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.590437</v>
+        <v>6.5904369999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>1209.670000</v>
+        <v>1209.67</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-497.115000</v>
+        <v>-497.11500000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>23736.740287</v>
+        <v>23736.740287000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.593539</v>
+        <v>6.5935389999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1331.420000</v>
+        <v>1331.42</v>
       </c>
       <c r="BV2" s="1">
-        <v>-698.896000</v>
+        <v>-698.89599999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>23747.737556</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.596594</v>
+        <v>6.5965939999999996</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1467.130000</v>
+        <v>1467.13</v>
       </c>
       <c r="CA2" s="1">
-        <v>-914.398000</v>
+        <v>-914.39800000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>23759.114785</v>
+        <v>23759.114785000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.599754</v>
+        <v>6.5997539999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1823.730000</v>
+        <v>1823.73</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1425.370000</v>
+        <v>-1425.37</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>23588.252471</v>
       </c>
       <c r="B3" s="1">
-        <v>6.552292</v>
+        <v>6.5522919999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>898.635000</v>
+        <v>898.63499999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.111000</v>
+        <v>-202.11099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>23598.568757</v>
+        <v>23598.568757000001</v>
       </c>
       <c r="G3" s="1">
-        <v>6.555158</v>
+        <v>6.5551579999999996</v>
       </c>
       <c r="H3" s="1">
-        <v>916.950000</v>
+        <v>916.95</v>
       </c>
       <c r="I3" s="1">
-        <v>-170.882000</v>
+        <v>-170.88200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>23609.084904</v>
+        <v>23609.084903999999</v>
       </c>
       <c r="L3" s="1">
-        <v>6.558079</v>
+        <v>6.5580790000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>939.802000</v>
+        <v>939.80200000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.675000</v>
+        <v>-120.675</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>23619.285628</v>
+        <v>23619.285628000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.560913</v>
+        <v>6.5609130000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>946.571000</v>
+        <v>946.57100000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.158000</v>
+        <v>-104.158</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>23629.543899</v>
       </c>
       <c r="V3" s="1">
-        <v>6.563762</v>
+        <v>6.5637619999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>952.985000</v>
+        <v>952.98500000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.831900</v>
+        <v>-88.831900000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>23639.689055</v>
+        <v>23639.689054999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.566580</v>
+        <v>6.5665800000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.029000</v>
+        <v>960.029</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.867900</v>
+        <v>-76.867900000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>23649.943843</v>
+        <v>23649.943843000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.569429</v>
+        <v>6.5694290000000004</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.573000</v>
+        <v>964.57299999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.518600</v>
+        <v>-74.518600000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>23659.736886</v>
+        <v>23659.736885999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.572149</v>
+        <v>6.5721489999999996</v>
       </c>
       <c r="AL3" s="1">
-        <v>971.606000</v>
+        <v>971.60599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.094100</v>
+        <v>-79.094099999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>23670.668182</v>
+        <v>23670.668182000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.575186</v>
+        <v>6.5751860000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.554000</v>
+        <v>979.55399999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.546300</v>
+        <v>-90.546300000000002</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>23681.655097</v>
+        <v>23681.655096999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.578238</v>
+        <v>6.5782379999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>989.216000</v>
+        <v>989.21600000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.063000</v>
+        <v>-108.063</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>23692.796201</v>
+        <v>23692.796201000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.581332</v>
+        <v>6.5813319999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>997.305000</v>
+        <v>997.30499999999995</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.681000</v>
+        <v>-123.681</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>23703.751338</v>
+        <v>23703.751337999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.584375</v>
+        <v>6.5843749999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1035.370000</v>
+        <v>1035.3699999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.711000</v>
+        <v>-195.71100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>23714.848859</v>
+        <v>23714.848859000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.587458</v>
+        <v>6.5874579999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1101.600000</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-312.821000</v>
+        <v>-312.82100000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>23726.001372</v>
+        <v>23726.001371999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.590556</v>
+        <v>6.5905560000000003</v>
       </c>
       <c r="BP3" s="1">
-        <v>1209.740000</v>
+        <v>1209.74</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-497.133000</v>
+        <v>-497.13299999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>23737.195086</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.593665</v>
+        <v>6.5936649999999997</v>
       </c>
       <c r="BU3" s="1">
-        <v>1331.490000</v>
+        <v>1331.49</v>
       </c>
       <c r="BV3" s="1">
-        <v>-698.969000</v>
+        <v>-698.96900000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>23748.195856</v>
+        <v>23748.195855999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.596721</v>
+        <v>6.5967209999999996</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1467.210000</v>
+        <v>1467.21</v>
       </c>
       <c r="CA3" s="1">
-        <v>-914.527000</v>
+        <v>-914.52700000000004</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>23759.681216</v>
+        <v>23759.681216000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.599911</v>
+        <v>6.5999109999999996</v>
       </c>
       <c r="CE3" s="1">
-        <v>1823.820000</v>
+        <v>1823.82</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1425.490000</v>
+        <v>-1425.49</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>23588.618023</v>
+        <v>23588.618022999999</v>
       </c>
       <c r="B4" s="1">
-        <v>6.552394</v>
+        <v>6.5523939999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>898.782000</v>
+        <v>898.78200000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.144000</v>
+        <v>-202.14400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>23598.982390</v>
+        <v>23598.982390000001</v>
       </c>
       <c r="G4" s="1">
-        <v>6.555273</v>
+        <v>6.5552729999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>917.088000</v>
+        <v>917.08799999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-170.474000</v>
+        <v>-170.47399999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>23609.429625</v>
+        <v>23609.429625000001</v>
       </c>
       <c r="L4" s="1">
-        <v>6.558175</v>
+        <v>6.5581750000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>939.917000</v>
+        <v>939.91700000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.811000</v>
+        <v>-120.81100000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>23619.632826</v>
+        <v>23619.632826000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.561009</v>
+        <v>6.5610090000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>946.547000</v>
+        <v>946.54700000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.182000</v>
+        <v>-104.182</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>23629.894060</v>
+        <v>23629.894059999999</v>
       </c>
       <c r="V4" s="1">
-        <v>6.563859</v>
+        <v>6.5638589999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>952.911000</v>
+        <v>952.91099999999994</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.809900</v>
+        <v>-88.809899999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>23640.113134</v>
+        <v>23640.113133999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.566698</v>
+        <v>6.5666979999999997</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.961000</v>
+        <v>959.96100000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.955600</v>
+        <v>-76.955600000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>23650.360515</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.569545</v>
+        <v>6.5695449999999997</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.559000</v>
+        <v>964.55899999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.550000</v>
+        <v>-74.55</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>23660.083060</v>
+        <v>23660.083060000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.572245</v>
+        <v>6.5722449999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.629000</v>
+        <v>971.62900000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.070600</v>
+        <v>-79.070599999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>23671.031751</v>
+        <v>23671.031750999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.575287</v>
+        <v>6.5752870000000003</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.546000</v>
+        <v>979.54600000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.528100</v>
+        <v>-90.528099999999995</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>23682.021607</v>
+        <v>23682.021606999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.578339</v>
+        <v>6.5783389999999997</v>
       </c>
       <c r="AV4" s="1">
-        <v>989.225000</v>
+        <v>989.22500000000002</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.086000</v>
+        <v>-108.086</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>23693.148360</v>
+        <v>23693.148359999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.581430</v>
+        <v>6.5814300000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>997.323000</v>
+        <v>997.32299999999998</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.660000</v>
+        <v>-123.66</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>23704.358441</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.584544</v>
+        <v>6.5845440000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1035.380000</v>
+        <v>1035.3800000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.684000</v>
+        <v>-195.684</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>23715.596796</v>
+        <v>23715.596796000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.587666</v>
+        <v>6.5876659999999996</v>
       </c>
       <c r="BK4" s="1">
-        <v>1101.630000</v>
+        <v>1101.6300000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-312.812000</v>
+        <v>-312.81200000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>23726.404127</v>
+        <v>23726.404127000002</v>
       </c>
       <c r="BO4" s="1">
         <v>6.590668</v>
       </c>
       <c r="BP4" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-497.113000</v>
+        <v>-497.113</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>23737.617678</v>
+        <v>23737.617677999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.593783</v>
+        <v>6.5937830000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1331.590000</v>
+        <v>1331.59</v>
       </c>
       <c r="BV4" s="1">
-        <v>-699.100000</v>
+        <v>-699.1</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>23748.617455</v>
@@ -1220,709 +1636,709 @@
         <v>6.596838</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1467.250000</v>
+        <v>1467.25</v>
       </c>
       <c r="CA4" s="1">
-        <v>-914.458000</v>
+        <v>-914.45799999999997</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>23760.506593</v>
+        <v>23760.506592999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.600141</v>
+        <v>6.6001409999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>1822.640000</v>
+        <v>1822.64</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1425.770000</v>
+        <v>-1425.77</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>23588.961717</v>
+        <v>23588.961716999998</v>
       </c>
       <c r="B5" s="1">
-        <v>6.552489</v>
+        <v>6.5524889999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>898.795000</v>
+        <v>898.79499999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.184000</v>
+        <v>-202.184</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>23599.328629</v>
       </c>
       <c r="G5" s="1">
-        <v>6.555369</v>
+        <v>6.5553689999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>916.710000</v>
+        <v>916.71</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.070000</v>
+        <v>-171.07</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>23609.774838</v>
+        <v>23609.774838000001</v>
       </c>
       <c r="L5" s="1">
-        <v>6.558271</v>
+        <v>6.5582710000000004</v>
       </c>
       <c r="M5" s="1">
-        <v>939.786000</v>
+        <v>939.78599999999994</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.845000</v>
+        <v>-120.845</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>23620.044009</v>
+        <v>23620.044009000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.561123</v>
+        <v>6.5611230000000003</v>
       </c>
       <c r="R5" s="1">
-        <v>946.542000</v>
+        <v>946.54200000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.162000</v>
+        <v>-104.16200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>23630.303788</v>
+        <v>23630.303788000001</v>
       </c>
       <c r="V5" s="1">
-        <v>6.563973</v>
+        <v>6.5639729999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>952.957000</v>
+        <v>952.95699999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.837300</v>
+        <v>-88.837299999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>23640.407790</v>
+        <v>23640.407790000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.566780</v>
+        <v>6.5667799999999996</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.959000</v>
+        <v>959.95899999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.866100</v>
+        <v>-76.866100000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>23650.632785</v>
+        <v>23650.632785000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.569620</v>
+        <v>6.5696199999999996</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.586000</v>
+        <v>964.58600000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.542300</v>
+        <v>-74.542299999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>23660.428771</v>
+        <v>23660.428770999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.572341</v>
+        <v>6.5723409999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>971.608000</v>
+        <v>971.60799999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.075900</v>
+        <v>-79.075900000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>23671.392341</v>
+        <v>23671.392340999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.575387</v>
+        <v>6.5753870000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.536000</v>
+        <v>979.53599999999994</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.530700</v>
+        <v>-90.530699999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>23682.382198</v>
+        <v>23682.382197999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.578439</v>
+        <v>6.5784390000000004</v>
       </c>
       <c r="AV5" s="1">
-        <v>989.211000</v>
+        <v>989.21100000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.078000</v>
+        <v>-108.078</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>23693.867064</v>
+        <v>23693.867063999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.581630</v>
+        <v>6.5816299999999996</v>
       </c>
       <c r="BA5" s="1">
-        <v>997.317000</v>
+        <v>997.31700000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.654000</v>
+        <v>-123.654</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>23704.810297</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.584670</v>
+        <v>6.58467</v>
       </c>
       <c r="BF5" s="1">
-        <v>1035.370000</v>
+        <v>1035.3699999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.695000</v>
+        <v>-195.69499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>23715.998091</v>
+        <v>23715.998091000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>6.587777</v>
       </c>
       <c r="BK5" s="1">
-        <v>1101.620000</v>
+        <v>1101.6199999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-312.833000</v>
+        <v>-312.83300000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>23726.803404</v>
+        <v>23726.803403999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.590779</v>
+        <v>6.5907790000000004</v>
       </c>
       <c r="BP5" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-497.113000</v>
+        <v>-497.113</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>23738.031837</v>
+        <v>23738.031836999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.593898</v>
+        <v>6.5938980000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>1331.600000</v>
+        <v>1331.6</v>
       </c>
       <c r="BV5" s="1">
-        <v>-699.183000</v>
+        <v>-699.18299999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>23749.348558</v>
+        <v>23749.348558000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.597041</v>
+        <v>6.5970409999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1467.260000</v>
+        <v>1467.26</v>
       </c>
       <c r="CA5" s="1">
-        <v>-914.514000</v>
+        <v>-914.51400000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>23760.749742</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.600208</v>
+        <v>6.6002080000000003</v>
       </c>
       <c r="CE5" s="1">
-        <v>1823.590000</v>
+        <v>1823.59</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1427.190000</v>
+        <v>-1427.19</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>23589.303985</v>
+        <v>23589.303984999999</v>
       </c>
       <c r="B6" s="1">
-        <v>6.552584</v>
+        <v>6.5525840000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>898.812000</v>
+        <v>898.81200000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.116000</v>
+        <v>-202.11600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>23599.754166</v>
+        <v>23599.754165999999</v>
       </c>
       <c r="G6" s="1">
-        <v>6.555487</v>
+        <v>6.5554870000000003</v>
       </c>
       <c r="H6" s="1">
-        <v>916.716000</v>
+        <v>916.71600000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-170.919000</v>
+        <v>-170.91900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>23610.194950</v>
+        <v>23610.194950000001</v>
       </c>
       <c r="L6" s="1">
-        <v>6.558387</v>
+        <v>6.5583869999999997</v>
       </c>
       <c r="M6" s="1">
-        <v>939.699000</v>
+        <v>939.69899999999996</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.656000</v>
+        <v>-120.65600000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>23620.335161</v>
+        <v>23620.335160999999</v>
       </c>
       <c r="Q6" s="1">
         <v>6.561204</v>
       </c>
       <c r="R6" s="1">
-        <v>946.537000</v>
+        <v>946.53700000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.143000</v>
+        <v>-104.143</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>23630.594714</v>
+        <v>23630.594713999999</v>
       </c>
       <c r="V6" s="1">
-        <v>6.564054</v>
+        <v>6.5640539999999996</v>
       </c>
       <c r="W6" s="1">
-        <v>953.019000</v>
+        <v>953.01900000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.808900</v>
+        <v>-88.808899999999994</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>23640.756479</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.566877</v>
+        <v>6.5668769999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.063000</v>
+        <v>960.06299999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.966700</v>
+        <v>-76.966700000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>23651.000816</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.569722</v>
+        <v>6.5697219999999996</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.555000</v>
+        <v>964.55499999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.563300</v>
+        <v>-74.563299999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>23660.778483</v>
+        <v>23660.778482999998</v>
       </c>
       <c r="AK6" s="1">
         <v>6.572438</v>
       </c>
       <c r="AL6" s="1">
-        <v>971.620000</v>
+        <v>971.62</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.073400</v>
+        <v>-79.073400000000007</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>23672.102612</v>
+        <v>23672.102611999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.575584</v>
+        <v>6.5755840000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.556000</v>
+        <v>979.55600000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.525700</v>
+        <v>-90.525700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>23683.112838</v>
+        <v>23683.112838000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.578642</v>
+        <v>6.5786420000000003</v>
       </c>
       <c r="AV6" s="1">
-        <v>989.220000</v>
+        <v>989.22</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.081000</v>
+        <v>-108.081</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>23694.256423</v>
+        <v>23694.256422999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.581738</v>
+        <v>6.5817379999999996</v>
       </c>
       <c r="BA6" s="1">
-        <v>997.297000</v>
+        <v>997.29700000000003</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.673000</v>
+        <v>-123.673</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>23705.187257</v>
+        <v>23705.187257000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.584774</v>
+        <v>6.5847740000000003</v>
       </c>
       <c r="BF6" s="1">
-        <v>1035.380000</v>
+        <v>1035.3800000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.675000</v>
+        <v>-195.67500000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>23716.373035</v>
+        <v>23716.373035000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.587881</v>
+        <v>6.5878810000000003</v>
       </c>
       <c r="BK6" s="1">
-        <v>1101.590000</v>
+        <v>1101.5899999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-312.824000</v>
+        <v>-312.82400000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>23727.530043</v>
+        <v>23727.530042999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.590981</v>
+        <v>6.5909810000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-497.147000</v>
+        <v>-497.14699999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>23738.743101</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.594095</v>
+        <v>6.5940950000000003</v>
       </c>
       <c r="BU6" s="1">
-        <v>1331.550000</v>
+        <v>1331.55</v>
       </c>
       <c r="BV6" s="1">
-        <v>-699.262000</v>
+        <v>-699.26199999999994</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>23749.468094</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.597074</v>
+        <v>6.5970740000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1467.160000</v>
+        <v>1467.16</v>
       </c>
       <c r="CA6" s="1">
-        <v>-914.462000</v>
+        <v>-914.46199999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>23761.283792</v>
+        <v>23761.283791999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.600357</v>
+        <v>6.6003569999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1823.960000</v>
+        <v>1823.96</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1425.370000</v>
+        <v>-1425.37</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>23589.725057</v>
       </c>
       <c r="B7" s="1">
-        <v>6.552701</v>
+        <v>6.5527009999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>898.624000</v>
+        <v>898.62400000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-201.887000</v>
+        <v>-201.887</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>23600.015059</v>
+        <v>23600.015059000001</v>
       </c>
       <c r="G7" s="1">
-        <v>6.555560</v>
+        <v>6.5555599999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>916.466000</v>
+        <v>916.46600000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.118000</v>
+        <v>-171.11799999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>23610.467750</v>
+        <v>23610.46775</v>
       </c>
       <c r="L7" s="1">
-        <v>6.558463</v>
+        <v>6.5584629999999997</v>
       </c>
       <c r="M7" s="1">
-        <v>939.939000</v>
+        <v>939.93899999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.910000</v>
+        <v>-120.91</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>23620.685833</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.561302</v>
+        <v>6.5613020000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>946.522000</v>
+        <v>946.52200000000005</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.155000</v>
+        <v>-104.155</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>23630.936652</v>
       </c>
       <c r="V7" s="1">
-        <v>6.564149</v>
+        <v>6.5641489999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>953.018000</v>
+        <v>953.01800000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.796300</v>
+        <v>-88.796300000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>23641.107119</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.566974</v>
+        <v>6.5669740000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.946000</v>
+        <v>959.94600000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.894000</v>
+        <v>-76.894000000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>23651.574725</v>
+        <v>23651.574724999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.569882</v>
+        <v>6.5698819999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.581000</v>
+        <v>964.58100000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.559000</v>
+        <v>-74.558999999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>23661.473842</v>
+        <v>23661.473841999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.572632</v>
+        <v>6.5726319999999996</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.615000</v>
+        <v>971.61500000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.101200</v>
+        <v>-79.101200000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>23672.470644</v>
+        <v>23672.470644000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.575686</v>
+        <v>6.5756860000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.553000</v>
+        <v>979.553</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.526700</v>
+        <v>-90.526700000000005</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>23683.501669</v>
+        <v>23683.501669000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.578750</v>
+        <v>6.5787500000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>989.216000</v>
+        <v>989.21600000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.067000</v>
+        <v>-108.06699999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>23694.614566</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.581837</v>
+        <v>6.5818370000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>997.323000</v>
+        <v>997.32299999999998</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.667000</v>
+        <v>-123.667</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>23705.864297</v>
@@ -1931,210 +2347,210 @@
         <v>6.584962</v>
       </c>
       <c r="BF7" s="1">
-        <v>1035.390000</v>
+        <v>1035.3900000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.685000</v>
+        <v>-195.685</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>23717.052553</v>
+        <v>23717.052553000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.588070</v>
+        <v>6.5880700000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1101.600000</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-312.805000</v>
+        <v>-312.80500000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>23727.643660</v>
+        <v>23727.643660000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.591012</v>
+        <v>6.5910120000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1209.670000</v>
+        <v>1209.67</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-497.152000</v>
+        <v>-497.15199999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>23738.862172</v>
+        <v>23738.862172000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.594128</v>
+        <v>6.5941280000000004</v>
       </c>
       <c r="BU7" s="1">
-        <v>1331.590000</v>
+        <v>1331.59</v>
       </c>
       <c r="BV7" s="1">
-        <v>-699.309000</v>
+        <v>-699.30899999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>23749.915485</v>
+        <v>23749.915485000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.597199</v>
+        <v>6.5971989999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1467.080000</v>
+        <v>1467.08</v>
       </c>
       <c r="CA7" s="1">
-        <v>-914.575000</v>
+        <v>-914.57500000000005</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>23761.823962</v>
+        <v>23761.823961999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.600507</v>
+        <v>6.6005070000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1822.760000</v>
+        <v>1822.76</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1426.760000</v>
+        <v>-1426.76</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>23589.992933</v>
+        <v>23589.992933000001</v>
       </c>
       <c r="B8" s="1">
-        <v>6.552776</v>
+        <v>6.5527759999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>898.872000</v>
+        <v>898.87199999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.100000</v>
+        <v>-202.1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>23600.361764</v>
+        <v>23600.361764000001</v>
       </c>
       <c r="G8" s="1">
-        <v>6.555656</v>
+        <v>6.5556559999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>916.914000</v>
+        <v>916.91399999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.112000</v>
+        <v>-171.11199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>23610.813096</v>
+        <v>23610.813096000002</v>
       </c>
       <c r="L8" s="1">
-        <v>6.558559</v>
+        <v>6.5585589999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>939.825000</v>
+        <v>939.82500000000005</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.806000</v>
+        <v>-120.806</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>23621.034520</v>
+        <v>23621.034520000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.561398</v>
+        <v>6.5613979999999996</v>
       </c>
       <c r="R8" s="1">
-        <v>946.587000</v>
+        <v>946.58699999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.133000</v>
+        <v>-104.133</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>23631.283887</v>
+        <v>23631.283887000001</v>
       </c>
       <c r="V8" s="1">
-        <v>6.564246</v>
+        <v>6.5642459999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>952.911000</v>
+        <v>952.91099999999994</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.818700</v>
+        <v>-88.818700000000007</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>23641.801052</v>
+        <v>23641.801051999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.567167</v>
+        <v>6.5671670000000004</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.993000</v>
+        <v>959.99300000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.849800</v>
+        <v>-76.849800000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>23651.685327</v>
+        <v>23651.685326999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.569913</v>
+        <v>6.5699129999999997</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.548000</v>
+        <v>964.548</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.549300</v>
+        <v>-74.549300000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>23661.821042</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.572728</v>
+        <v>6.5727279999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>971.622000</v>
+        <v>971.62199999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.059100</v>
+        <v>-79.059100000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>23672.832229</v>
@@ -2143,2054 +2559,2054 @@
         <v>6.575787</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.536000</v>
+        <v>979.53599999999994</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.538700</v>
+        <v>-90.538700000000006</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>23683.866724</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.578852</v>
+        <v>6.5788520000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>989.210000</v>
+        <v>989.21</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.069000</v>
+        <v>-108.069</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>23695.285126</v>
+        <v>23695.285125999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.582024</v>
+        <v>6.5820239999999997</v>
       </c>
       <c r="BA8" s="1">
-        <v>997.320000</v>
+        <v>997.32</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.663000</v>
+        <v>-123.663</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>23706.270519</v>
+        <v>23706.270519000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.585075</v>
+        <v>6.5850749999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1035.370000</v>
+        <v>1035.3699999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.702000</v>
+        <v>-195.702</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>23717.164153</v>
+        <v>23717.164153000002</v>
       </c>
       <c r="BJ8" s="1">
         <v>6.588101</v>
       </c>
       <c r="BK8" s="1">
-        <v>1101.640000</v>
+        <v>1101.6400000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-312.807000</v>
+        <v>-312.80700000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>23728.040459</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.591122</v>
+        <v>6.5911220000000004</v>
       </c>
       <c r="BP8" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-497.150000</v>
+        <v>-497.15</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>23739.318957</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.594255</v>
+        <v>6.5942550000000004</v>
       </c>
       <c r="BU8" s="1">
-        <v>1331.510000</v>
+        <v>1331.51</v>
       </c>
       <c r="BV8" s="1">
-        <v>-699.466000</v>
+        <v>-699.46600000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>23750.345517</v>
+        <v>23750.345517000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.597318</v>
+        <v>6.5973179999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1467.120000</v>
+        <v>1467.12</v>
       </c>
       <c r="CA8" s="1">
-        <v>-914.565000</v>
+        <v>-914.56500000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>23762.361597</v>
+        <v>23762.361596999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.600656</v>
+        <v>6.6006559999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1823.960000</v>
+        <v>1823.96</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1426.450000</v>
+        <v>-1426.45</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>23590.335665</v>
+        <v>23590.335664999999</v>
       </c>
       <c r="B9" s="1">
-        <v>6.552871</v>
+        <v>6.5528709999999997</v>
       </c>
       <c r="C9" s="1">
-        <v>898.788000</v>
+        <v>898.78800000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.086000</v>
+        <v>-202.08600000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>23600.703010</v>
+        <v>23600.703010000001</v>
       </c>
       <c r="G9" s="1">
-        <v>6.555751</v>
+        <v>6.5557509999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>917.014000</v>
+        <v>917.01400000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.841000</v>
+        <v>-170.84100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>23611.161157</v>
+        <v>23611.161156999999</v>
       </c>
       <c r="L9" s="1">
         <v>6.558656</v>
       </c>
       <c r="M9" s="1">
-        <v>939.940000</v>
+        <v>939.94</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.722000</v>
+        <v>-120.72199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>23621.732921</v>
+        <v>23621.732920999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.561592</v>
+        <v>6.5615920000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>946.537000</v>
+        <v>946.53700000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.197000</v>
+        <v>-104.197</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>23631.969817</v>
+        <v>23631.969817000001</v>
       </c>
       <c r="V9" s="1">
-        <v>6.564436</v>
+        <v>6.5644359999999997</v>
       </c>
       <c r="W9" s="1">
-        <v>953.023000</v>
+        <v>953.02300000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.818100</v>
+        <v>-88.818100000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>23642.148747</v>
+        <v>23642.148746999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.567264</v>
+        <v>6.5672639999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.936000</v>
+        <v>959.93600000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.906400</v>
+        <v>-76.906400000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>23652.007727</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.570002</v>
+        <v>6.5700019999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.586000</v>
+        <v>964.58600000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.546200</v>
+        <v>-74.546199999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>23662.172209</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.572826</v>
+        <v>6.5728260000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>971.626000</v>
+        <v>971.62599999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.072900</v>
+        <v>-79.072900000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>23673.500339</v>
+        <v>23673.500338999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.575972</v>
+        <v>6.5759720000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.568000</v>
+        <v>979.56799999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.540700</v>
+        <v>-90.540700000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>23684.538804</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.579039</v>
+        <v>6.5790389999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>989.207000</v>
+        <v>989.20699999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.079000</v>
+        <v>-108.07899999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>23695.724608</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.582146</v>
+        <v>6.5821459999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>997.310000</v>
+        <v>997.31</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.665000</v>
+        <v>-123.66500000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>23706.658925</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.585183</v>
+        <v>6.5851829999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1035.380000</v>
+        <v>1035.3800000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.687000</v>
+        <v>-195.68700000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>23717.524249</v>
+        <v>23717.524248999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.588201</v>
+        <v>6.5882009999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1101.620000</v>
+        <v>1101.6199999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-312.840000</v>
+        <v>-312.83999999999997</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>23728.462026</v>
+        <v>23728.462026000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.591239</v>
+        <v>6.5912389999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-497.170000</v>
+        <v>-497.17</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>23739.719724</v>
+        <v>23739.719723999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.594367</v>
+        <v>6.5943670000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1331.420000</v>
+        <v>1331.42</v>
       </c>
       <c r="BV9" s="1">
-        <v>-699.430000</v>
+        <v>-699.43</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>23750.768108</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.597436</v>
+        <v>6.5974360000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1467.190000</v>
+        <v>1467.19</v>
       </c>
       <c r="CA9" s="1">
-        <v>-914.472000</v>
+        <v>-914.47199999999998</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>23762.902237</v>
+        <v>23762.902236999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.600806</v>
+        <v>6.6008060000000004</v>
       </c>
       <c r="CE9" s="1">
-        <v>1822.980000</v>
+        <v>1822.98</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1425.730000</v>
+        <v>-1425.73</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>23590.678368</v>
+        <v>23590.678368000001</v>
       </c>
       <c r="B10" s="1">
-        <v>6.552966</v>
+        <v>6.5529659999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>898.780000</v>
+        <v>898.78</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.195000</v>
+        <v>-202.19499999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>23601.392946</v>
       </c>
       <c r="G10" s="1">
-        <v>6.555942</v>
+        <v>6.5559419999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>916.536000</v>
+        <v>916.53599999999994</v>
       </c>
       <c r="I10" s="1">
-        <v>-170.746000</v>
+        <v>-170.74600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>23611.850623</v>
+        <v>23611.850622999998</v>
       </c>
       <c r="L10" s="1">
-        <v>6.558847</v>
+        <v>6.5588470000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>939.838000</v>
+        <v>939.83799999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.676000</v>
+        <v>-120.676</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>23622.082566</v>
+        <v>23622.082566000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.561690</v>
+        <v>6.5616899999999996</v>
       </c>
       <c r="R10" s="1">
-        <v>946.524000</v>
+        <v>946.524</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.193000</v>
+        <v>-104.193</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>23632.312552</v>
+        <v>23632.312551999999</v>
       </c>
       <c r="V10" s="1">
-        <v>6.564531</v>
+        <v>6.5645309999999997</v>
       </c>
       <c r="W10" s="1">
-        <v>952.957000</v>
+        <v>952.95699999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.816800</v>
+        <v>-88.816800000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>23642.499885</v>
+        <v>23642.499885000001</v>
       </c>
       <c r="AA10" s="1">
         <v>6.567361</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.031000</v>
+        <v>960.03099999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.865300</v>
+        <v>-76.865300000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>23652.659454</v>
+        <v>23652.659454000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.570183</v>
+        <v>6.5701830000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.550000</v>
+        <v>964.55</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.563900</v>
+        <v>-74.563900000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>23662.829905</v>
+        <v>23662.829904999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.573008</v>
+        <v>6.5730079999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.629000</v>
+        <v>971.62900000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.087600</v>
+        <v>-79.087599999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>23673.940325</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.576095</v>
+        <v>6.5760949999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.560000</v>
+        <v>979.56</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.535000</v>
+        <v>-90.534999999999997</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>23684.990698</v>
+        <v>23684.990698000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.579164</v>
+        <v>6.5791639999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>989.214000</v>
+        <v>989.21400000000006</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.075000</v>
+        <v>-108.075</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>23696.080740</v>
+        <v>23696.080740000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.582245</v>
+        <v>6.5822450000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>997.303000</v>
+        <v>997.303</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.672000</v>
+        <v>-123.672</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>23707.037943</v>
+        <v>23707.037942999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>6.585288</v>
+        <v>6.5852880000000003</v>
       </c>
       <c r="BF10" s="1">
-        <v>1035.380000</v>
+        <v>1035.3800000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.701000</v>
+        <v>-195.70099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>23717.902696</v>
+        <v>23717.902696000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.588306</v>
+        <v>6.5883060000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1101.590000</v>
+        <v>1101.5899999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-312.850000</v>
+        <v>-312.85000000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>23728.876681</v>
+        <v>23728.876681000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.591355</v>
+        <v>6.5913550000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1209.680000</v>
+        <v>1209.68</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-497.169000</v>
+        <v>-497.16899999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>23740.160172</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.594489</v>
+        <v>6.5944890000000003</v>
       </c>
       <c r="BU10" s="1">
-        <v>1331.390000</v>
+        <v>1331.39</v>
       </c>
       <c r="BV10" s="1">
-        <v>-699.465000</v>
+        <v>-699.46500000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>23751.189243</v>
+        <v>23751.189243000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.597553</v>
+        <v>6.5975529999999996</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1467.060000</v>
+        <v>1467.06</v>
       </c>
       <c r="CA10" s="1">
-        <v>-914.514000</v>
+        <v>-914.51400000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>23763.443373</v>
+        <v>23763.443372999998</v>
       </c>
       <c r="CD10" s="1">
         <v>6.600956</v>
       </c>
       <c r="CE10" s="1">
-        <v>1823.500000</v>
+        <v>1823.5</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1426.920000</v>
+        <v>-1426.92</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>23591.361856</v>
       </c>
       <c r="B11" s="1">
-        <v>6.553156</v>
+        <v>6.5531560000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>898.762000</v>
+        <v>898.76199999999994</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.028000</v>
+        <v>-202.02799999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>23601.737170</v>
+        <v>23601.73717</v>
       </c>
       <c r="G11" s="1">
         <v>6.556038</v>
       </c>
       <c r="H11" s="1">
-        <v>916.640000</v>
+        <v>916.64</v>
       </c>
       <c r="I11" s="1">
-        <v>-170.502000</v>
+        <v>-170.50200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>23612.195316</v>
+        <v>23612.195316000001</v>
       </c>
       <c r="L11" s="1">
-        <v>6.558943</v>
+        <v>6.5589430000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>939.970000</v>
+        <v>939.97</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.902000</v>
+        <v>-120.902</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>23622.428798</v>
+        <v>23622.428798000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.561786</v>
+        <v>6.5617859999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>946.522000</v>
+        <v>946.52200000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.172000</v>
+        <v>-104.172</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>23632.657272</v>
       </c>
       <c r="V11" s="1">
-        <v>6.564627</v>
+        <v>6.5646269999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>953.043000</v>
+        <v>953.04300000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.797200</v>
+        <v>-88.797200000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>23643.154107</v>
+        <v>23643.154106999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.567543</v>
+        <v>6.5675429999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.946000</v>
+        <v>959.94600000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.901800</v>
+        <v>-76.901799999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>23653.037923</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.570288</v>
+        <v>6.5702879999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.592000</v>
+        <v>964.59199999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.545000</v>
+        <v>-74.545000000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>23663.219265</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.573116</v>
+        <v>6.5731159999999997</v>
       </c>
       <c r="AL11" s="1">
-        <v>971.644000</v>
+        <v>971.64400000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.090300</v>
+        <v>-79.090299999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>23674.299891</v>
+        <v>23674.299890999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.576194</v>
+        <v>6.5761940000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.565000</v>
+        <v>979.56500000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.536100</v>
+        <v>-90.536100000000005</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>23685.360215</v>
+        <v>23685.360215000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.579267</v>
+        <v>6.5792669999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>989.217000</v>
+        <v>989.21699999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.094000</v>
+        <v>-108.09399999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>23696.441299</v>
+        <v>23696.441298999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.582345</v>
+        <v>6.5823450000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>997.299000</v>
+        <v>997.29899999999998</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.646000</v>
+        <v>-123.646</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>23707.454978</v>
+        <v>23707.454978000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.585404</v>
+        <v>6.5854039999999996</v>
       </c>
       <c r="BF11" s="1">
-        <v>1035.380000</v>
+        <v>1035.3800000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.698000</v>
+        <v>-195.69800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>23718.326280</v>
+        <v>23718.326280000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.588424</v>
+        <v>6.5884239999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1101.620000</v>
+        <v>1101.6199999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-312.811000</v>
+        <v>-312.81099999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>23729.285881</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.591468</v>
+        <v>6.5914679999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1209.690000</v>
+        <v>1209.69</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-497.173000</v>
+        <v>-497.173</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>23740.584747</v>
+        <v>23740.584747000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.594607</v>
+        <v>6.5946069999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1331.270000</v>
+        <v>1331.27</v>
       </c>
       <c r="BV11" s="1">
-        <v>-699.501000</v>
+        <v>-699.50099999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>23751.615771</v>
+        <v>23751.615771000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.597671</v>
+        <v>6.5976710000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1467.140000</v>
+        <v>1467.14</v>
       </c>
       <c r="CA11" s="1">
-        <v>-914.556000</v>
+        <v>-914.55600000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>23763.982733</v>
+        <v>23763.982733000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.601106</v>
+        <v>6.6011059999999997</v>
       </c>
       <c r="CE11" s="1">
-        <v>1823.630000</v>
+        <v>1823.63</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1425.330000</v>
+        <v>-1425.33</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>23591.705616</v>
+        <v>23591.705615999999</v>
       </c>
       <c r="B12" s="1">
-        <v>6.553252</v>
+        <v>6.5532519999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>898.724000</v>
+        <v>898.72400000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.139000</v>
+        <v>-202.13900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>23602.086882</v>
       </c>
       <c r="G12" s="1">
-        <v>6.556135</v>
+        <v>6.5561350000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>917.126000</v>
+        <v>917.12599999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-170.622000</v>
+        <v>-170.62200000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>23612.545491</v>
+        <v>23612.545491000001</v>
       </c>
       <c r="L12" s="1">
-        <v>6.559040</v>
+        <v>6.5590400000000004</v>
       </c>
       <c r="M12" s="1">
-        <v>939.828000</v>
+        <v>939.82799999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.959000</v>
+        <v>-120.959</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>23623.083526</v>
+        <v>23623.083525999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.561968</v>
+        <v>6.5619680000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>946.541000</v>
+        <v>946.54100000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.133000</v>
+        <v>-104.133</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>23633.375022</v>
       </c>
       <c r="V12" s="1">
-        <v>6.564826</v>
+        <v>6.5648260000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>953.000000</v>
+        <v>953</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.840300</v>
+        <v>-88.840299999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>23643.547467</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.567652</v>
+        <v>6.5676519999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.083000</v>
+        <v>960.08299999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.957300</v>
+        <v>-76.957300000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>23653.383635</v>
+        <v>23653.383634999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.570384</v>
+        <v>6.5703839999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.574000</v>
+        <v>964.57399999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.519500</v>
+        <v>-74.519499999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>23663.564511</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.573212</v>
+        <v>6.5732119999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.632000</v>
+        <v>971.63199999999995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.072300</v>
+        <v>-79.072299999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>23674.661969</v>
+        <v>23674.661969000001</v>
       </c>
       <c r="AP12" s="1">
         <v>6.576295</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.566000</v>
+        <v>979.56600000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.531800</v>
+        <v>-90.531800000000004</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>23685.722940</v>
+        <v>23685.72294</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.579367</v>
+        <v>6.5793670000000004</v>
       </c>
       <c r="AV12" s="1">
-        <v>989.215000</v>
+        <v>989.21500000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.078000</v>
+        <v>-108.078</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>23696.860948</v>
+        <v>23696.860948000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.582461</v>
+        <v>6.5824610000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>997.323000</v>
+        <v>997.32299999999998</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.655000</v>
+        <v>-123.655</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>23707.763477</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.585490</v>
+        <v>6.5854900000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1035.370000</v>
+        <v>1035.3699999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.690000</v>
+        <v>-195.69</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>23718.653375</v>
+        <v>23718.653375000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.588515</v>
+        <v>6.5885150000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1101.630000</v>
+        <v>1101.6300000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-312.829000</v>
+        <v>-312.82900000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>23729.680697</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.591578</v>
+        <v>6.5915780000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1209.730000</v>
+        <v>1209.73</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-497.153000</v>
+        <v>-497.15300000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>23740.996426</v>
+        <v>23740.996426000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.594721</v>
+        <v>6.5947209999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1331.220000</v>
+        <v>1331.22</v>
       </c>
       <c r="BV12" s="1">
-        <v>-699.555000</v>
+        <v>-699.55499999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>23752.032411</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.597787</v>
+        <v>6.5977870000000003</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1467.220000</v>
+        <v>1467.22</v>
       </c>
       <c r="CA12" s="1">
-        <v>-914.529000</v>
+        <v>-914.529</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>23764.522666</v>
+        <v>23764.522666000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.601256</v>
+        <v>6.6012560000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1822.820000</v>
+        <v>1822.82</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1427.080000</v>
+        <v>-1427.08</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>23592.045838</v>
+        <v>23592.045837999998</v>
       </c>
       <c r="B13" s="1">
-        <v>6.553346</v>
+        <v>6.5533460000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>898.754000</v>
+        <v>898.75400000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.177000</v>
+        <v>-202.17699999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>23602.742561</v>
+        <v>23602.742560999999</v>
       </c>
       <c r="G13" s="1">
         <v>6.556317</v>
       </c>
       <c r="H13" s="1">
-        <v>916.776000</v>
+        <v>916.77599999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>-170.678000</v>
+        <v>-170.678</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>23613.200211</v>
+        <v>23613.200210999999</v>
       </c>
       <c r="L13" s="1">
-        <v>6.559222</v>
+        <v>6.5592220000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>939.811000</v>
+        <v>939.81100000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.773000</v>
+        <v>-120.773</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>23623.474372</v>
+        <v>23623.474372000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.562076</v>
+        <v>6.5620760000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>946.572000</v>
+        <v>946.572</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.148000</v>
+        <v>-104.148</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>23633.711800</v>
+        <v>23633.711800000001</v>
       </c>
       <c r="V13" s="1">
-        <v>6.564920</v>
+        <v>6.5649199999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>952.954000</v>
+        <v>952.95399999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.835000</v>
+        <v>-88.834999999999994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>23643.894667</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.567749</v>
+        <v>6.5677490000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.913000</v>
+        <v>959.91300000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.925300</v>
+        <v>-76.925299999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>23653.725350</v>
+        <v>23653.725350000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.570479</v>
+        <v>6.5704789999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.563000</v>
+        <v>964.56299999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.516300</v>
+        <v>-74.516300000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>23663.913198</v>
+        <v>23663.913197999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.573309</v>
+        <v>6.5733090000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.626000</v>
+        <v>971.62599999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.088300</v>
+        <v>-79.088300000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>23675.086545</v>
+        <v>23675.086544999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.576413</v>
+        <v>6.5764129999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.559000</v>
+        <v>979.55899999999997</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.534100</v>
+        <v>-90.534099999999995</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>23686.210321</v>
+        <v>23686.210320999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.579503</v>
+        <v>6.5795029999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>989.216000</v>
+        <v>989.21600000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.083000</v>
+        <v>-108.083</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>23697.159507</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.582544</v>
+        <v>6.5825440000000004</v>
       </c>
       <c r="BA13" s="1">
-        <v>997.313000</v>
+        <v>997.31299999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.661000</v>
+        <v>-123.661</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>23708.124597</v>
+        <v>23708.124597000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.585590</v>
+        <v>6.5855899999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1035.390000</v>
+        <v>1035.3900000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.702000</v>
+        <v>-195.702</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>23719.051430</v>
+        <v>23719.05143</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.588625</v>
+        <v>6.5886250000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1101.600000</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-312.811000</v>
+        <v>-312.81099999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>23730.102309</v>
+        <v>23730.102309000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>6.591695</v>
+        <v>6.5916949999999996</v>
       </c>
       <c r="BP13" s="1">
-        <v>1209.670000</v>
+        <v>1209.67</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-497.173000</v>
+        <v>-497.173</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>23741.425993</v>
+        <v>23741.425993000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.594841</v>
+        <v>6.5948409999999997</v>
       </c>
       <c r="BU13" s="1">
-        <v>1331.090000</v>
+        <v>1331.09</v>
       </c>
       <c r="BV13" s="1">
-        <v>-699.476000</v>
+        <v>-699.476</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>23752.487738</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.597913</v>
+        <v>6.5979130000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1467.190000</v>
+        <v>1467.19</v>
       </c>
       <c r="CA13" s="1">
-        <v>-914.515000</v>
+        <v>-914.51499999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>23765.063305</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.601406</v>
+        <v>6.6014059999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1824.070000</v>
+        <v>1824.07</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1425.940000</v>
+        <v>-1425.94</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>23592.695629</v>
+        <v>23592.695629000002</v>
       </c>
       <c r="B14" s="1">
-        <v>6.553527</v>
+        <v>6.5535269999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>898.606000</v>
+        <v>898.60599999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.257000</v>
+        <v>-202.25700000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>23603.117568</v>
+        <v>23603.117568000001</v>
       </c>
       <c r="G14" s="1">
-        <v>6.556422</v>
+        <v>6.5564220000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>916.837000</v>
+        <v>916.83699999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.069000</v>
+        <v>-171.06899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>23613.581138</v>
+        <v>23613.581138000001</v>
       </c>
       <c r="L14" s="1">
-        <v>6.559328</v>
+        <v>6.5593279999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>939.770000</v>
+        <v>939.77</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.473000</v>
+        <v>-120.473</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>23623.824516</v>
+        <v>23623.824516000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.562173</v>
+        <v>6.5621729999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>946.555000</v>
+        <v>946.55499999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.171000</v>
+        <v>-104.17100000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>23634.040156</v>
+        <v>23634.040155999999</v>
       </c>
       <c r="V14" s="1">
-        <v>6.565011</v>
+        <v>6.5650110000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>953.040000</v>
+        <v>953.04</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.813300</v>
+        <v>-88.813299999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>23644.243523</v>
+        <v>23644.243523000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.567845</v>
+        <v>6.5678450000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.896000</v>
+        <v>959.89599999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.882400</v>
+        <v>-76.882400000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>23654.129580</v>
+        <v>23654.129580000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.570592</v>
+        <v>6.5705920000000004</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.618000</v>
+        <v>964.61800000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.514400</v>
+        <v>-74.514399999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>23664.331792</v>
+        <v>23664.331792000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.573425</v>
+        <v>6.5734250000000003</v>
       </c>
       <c r="AL14" s="1">
-        <v>971.625000</v>
+        <v>971.625</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.085100</v>
+        <v>-79.085099999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>23675.381664</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.576495</v>
+        <v>6.5764950000000004</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.563000</v>
+        <v>979.56299999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.530100</v>
+        <v>-90.530100000000004</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>23686.451377</v>
+        <v>23686.451377000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.579570</v>
+        <v>6.5795700000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>989.218000</v>
+        <v>989.21799999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.066000</v>
+        <v>-108.066</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>23697.519106</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.582644</v>
+        <v>6.5826440000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>997.319000</v>
+        <v>997.31899999999996</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.662000</v>
+        <v>-123.66200000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>23708.486186</v>
+        <v>23708.486185999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.585691</v>
+        <v>6.5856909999999997</v>
       </c>
       <c r="BF14" s="1">
-        <v>1035.380000</v>
+        <v>1035.3800000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.691000</v>
+        <v>-195.691</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>23719.427894</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.588730</v>
+        <v>6.58873</v>
       </c>
       <c r="BK14" s="1">
-        <v>1101.610000</v>
+        <v>1101.6099999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-312.813000</v>
+        <v>-312.81299999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>23730.918214</v>
+        <v>23730.918214000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.591922</v>
+        <v>6.5919220000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-497.171000</v>
+        <v>-497.17099999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>23741.853049</v>
+        <v>23741.853049000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.594959</v>
+        <v>6.5949590000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>1331.030000</v>
+        <v>1331.03</v>
       </c>
       <c r="BV14" s="1">
-        <v>-699.460000</v>
+        <v>-699.46</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>23752.934635</v>
+        <v>23752.934635000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.598037</v>
+        <v>6.5980369999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1467.120000</v>
+        <v>1467.12</v>
       </c>
       <c r="CA14" s="1">
-        <v>-914.589000</v>
+        <v>-914.58900000000006</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>23765.599483</v>
+        <v>23765.599483000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.601555</v>
+        <v>6.6015550000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>1822.610000</v>
+        <v>1822.61</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1425.580000</v>
+        <v>-1425.58</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>23593.069581</v>
       </c>
       <c r="B15" s="1">
-        <v>6.553630</v>
+        <v>6.5536300000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>898.786000</v>
+        <v>898.78599999999994</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.334000</v>
+        <v>-202.334</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>23603.460767</v>
       </c>
       <c r="G15" s="1">
-        <v>6.556517</v>
+        <v>6.5565170000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>916.367000</v>
+        <v>916.36699999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.018000</v>
+        <v>-171.018</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>23613.925404</v>
+        <v>23613.925404000001</v>
       </c>
       <c r="L15" s="1">
-        <v>6.559424</v>
+        <v>6.5594239999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>940.081000</v>
+        <v>940.08100000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.881000</v>
+        <v>-120.881</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>23624.173238</v>
+        <v>23624.173237999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>6.562270</v>
+        <v>6.5622699999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>946.550000</v>
+        <v>946.55</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.179000</v>
+        <v>-104.179</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>23634.454774</v>
+        <v>23634.454774000002</v>
       </c>
       <c r="V15" s="1">
-        <v>6.565126</v>
+        <v>6.5651260000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>953.014000</v>
+        <v>953.01400000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.800800</v>
+        <v>-88.800799999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>23644.657480</v>
+        <v>23644.657480000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.567960</v>
+        <v>6.5679600000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.019000</v>
+        <v>960.01900000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.943700</v>
+        <v>-76.943700000000007</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>23654.418779</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.570672</v>
+        <v>6.5706720000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.558000</v>
+        <v>964.55799999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.499200</v>
+        <v>-74.499200000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>23664.625950</v>
+        <v>23664.625950000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.573507</v>
+        <v>6.5735070000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.609000</v>
+        <v>971.60900000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.087200</v>
+        <v>-79.087199999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>23675.742751</v>
+        <v>23675.742751000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.576595</v>
+        <v>6.5765950000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.546000</v>
+        <v>979.54600000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.509600</v>
+        <v>-90.509600000000006</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>23686.815441</v>
+        <v>23686.815440999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.579671</v>
+        <v>6.5796710000000003</v>
       </c>
       <c r="AV15" s="1">
-        <v>989.220000</v>
+        <v>989.22</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.077000</v>
+        <v>-108.077</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>23697.876722</v>
+        <v>23697.876722000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.582744</v>
+        <v>6.5827439999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>997.309000</v>
+        <v>997.30899999999997</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.651000</v>
+        <v>-123.651</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>23709.214307</v>
+        <v>23709.214306999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.585893</v>
+        <v>6.5858930000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1035.380000</v>
+        <v>1035.3800000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.716000</v>
+        <v>-195.71600000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>23720.174906</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.588937</v>
+        <v>6.5889369999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1101.610000</v>
+        <v>1101.6099999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-312.831000</v>
+        <v>-312.83100000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>23731.336872</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.592038</v>
+        <v>6.5920379999999996</v>
       </c>
       <c r="BP15" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-497.139000</v>
+        <v>-497.13900000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>23742.268665</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.595075</v>
+        <v>6.5950749999999996</v>
       </c>
       <c r="BU15" s="1">
-        <v>1331.030000</v>
+        <v>1331.03</v>
       </c>
       <c r="BV15" s="1">
-        <v>-699.388000</v>
+        <v>-699.38800000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>23753.391983</v>
+        <v>23753.391983000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.598164</v>
+        <v>6.5981639999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1467.180000</v>
+        <v>1467.18</v>
       </c>
       <c r="CA15" s="1">
-        <v>-914.456000</v>
+        <v>-914.45600000000002</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>23766.450154</v>
+        <v>23766.450153999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.601792</v>
+        <v>6.6017919999999997</v>
       </c>
       <c r="CE15" s="1">
-        <v>1824.370000</v>
+        <v>1824.37</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1425.960000</v>
+        <v>-1425.96</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>23593.413805</v>
       </c>
       <c r="B16" s="1">
-        <v>6.553726</v>
+        <v>6.5537260000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>898.668000</v>
+        <v>898.66800000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.279000</v>
+        <v>-202.279</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>23603.805983</v>
+        <v>23603.805982999998</v>
       </c>
       <c r="G16" s="1">
-        <v>6.556613</v>
+        <v>6.5566129999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>916.357000</v>
+        <v>916.35699999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-170.506000</v>
+        <v>-170.506</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>23614.270576</v>
+        <v>23614.270575999999</v>
       </c>
       <c r="L16" s="1">
-        <v>6.559520</v>
+        <v>6.55952</v>
       </c>
       <c r="M16" s="1">
-        <v>939.862000</v>
+        <v>939.86199999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.705000</v>
+        <v>-120.705</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>23624.585411</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.562385</v>
+        <v>6.5623849999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>946.519000</v>
+        <v>946.51900000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.170000</v>
+        <v>-104.17</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>23634.741493</v>
+        <v>23634.741493000001</v>
       </c>
       <c r="V16" s="1">
-        <v>6.565206</v>
+        <v>6.5652059999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>953.020000</v>
+        <v>953.02</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.751700</v>
+        <v>-88.7517</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>23644.953096</v>
+        <v>23644.953096000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.568043</v>
+        <v>6.5680430000000003</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.085000</v>
+        <v>960.08500000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.798300</v>
+        <v>-76.798299999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>23654.758507</v>
+        <v>23654.758506999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.570766</v>
+        <v>6.5707659999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.588000</v>
+        <v>964.58799999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.550500</v>
+        <v>-74.5505</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>23664.973117</v>
+        <v>23664.973117000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.573604</v>
+        <v>6.5736039999999996</v>
       </c>
       <c r="AL16" s="1">
-        <v>971.617000</v>
+        <v>971.61699999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.073000</v>
+        <v>-79.072999999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>23676.100863</v>
@@ -4199,739 +4615,739 @@
         <v>6.576695</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.564000</v>
+        <v>979.56399999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.527300</v>
+        <v>-90.527299999999997</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>23687.546048</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.579874</v>
+        <v>6.5798740000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>989.203000</v>
+        <v>989.20299999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.066000</v>
+        <v>-108.066</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>23698.591954</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.582942</v>
+        <v>6.5829420000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>997.332000</v>
+        <v>997.33199999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.665000</v>
+        <v>-123.66500000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>23709.592227</v>
+        <v>23709.592227000001</v>
       </c>
       <c r="BE16" s="1">
         <v>6.585998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1035.380000</v>
+        <v>1035.3800000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.680000</v>
+        <v>-195.68</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>23720.549881</v>
+        <v>23720.549880999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.589042</v>
+        <v>6.5890420000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1101.600000</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-312.811000</v>
+        <v>-312.81099999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>23731.732149</v>
+        <v>23731.732148999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.592148</v>
+        <v>6.5921479999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-497.111000</v>
+        <v>-497.11099999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>23743.000264</v>
+        <v>23743.000263999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.595278</v>
+        <v>6.5952780000000004</v>
       </c>
       <c r="BU16" s="1">
-        <v>1330.990000</v>
+        <v>1330.99</v>
       </c>
       <c r="BV16" s="1">
-        <v>-699.312000</v>
+        <v>-699.31200000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>23754.145878</v>
+        <v>23754.145877999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.598374</v>
+        <v>6.5983739999999997</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1467.130000</v>
+        <v>1467.13</v>
       </c>
       <c r="CA16" s="1">
-        <v>-914.563000</v>
+        <v>-914.56299999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>23766.680760</v>
+        <v>23766.680759999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.601856</v>
+        <v>6.6018559999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>1824.070000</v>
+        <v>1824.07</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1425.970000</v>
+        <v>-1425.97</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>23593.754097</v>
+        <v>23593.754097000001</v>
       </c>
       <c r="B17" s="1">
-        <v>6.553821</v>
+        <v>6.5538210000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>898.657000</v>
+        <v>898.65700000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.224000</v>
+        <v>-202.22399999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>23604.221166</v>
+        <v>23604.221165999999</v>
       </c>
       <c r="G17" s="1">
-        <v>6.556728</v>
+        <v>6.5567279999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>916.345000</v>
+        <v>916.34500000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>-170.527000</v>
+        <v>-170.52699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>23614.685768</v>
+        <v>23614.685767999999</v>
       </c>
       <c r="L17" s="1">
-        <v>6.559635</v>
+        <v>6.5596350000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>939.853000</v>
+        <v>939.85299999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.757000</v>
+        <v>-120.75700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>23624.881522</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.562467</v>
+        <v>6.5624669999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>946.511000</v>
+        <v>946.51099999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.180000</v>
+        <v>-104.18</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>23635.086181</v>
+        <v>23635.086180999999</v>
       </c>
       <c r="V17" s="1">
         <v>6.565302</v>
       </c>
       <c r="W17" s="1">
-        <v>953.011000</v>
+        <v>953.01099999999997</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.825100</v>
+        <v>-88.825100000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>23645.300793</v>
+        <v>23645.300792999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.568139</v>
+        <v>6.5681390000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.054000</v>
+        <v>960.05399999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.886700</v>
+        <v>-76.886700000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>23655.102234</v>
+        <v>23655.102234000002</v>
       </c>
       <c r="AF17" s="1">
         <v>6.570862</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.584000</v>
+        <v>964.58399999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.568700</v>
+        <v>-74.568700000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>23665.320814</v>
+        <v>23665.320813999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.573700</v>
+        <v>6.5736999999999997</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.626000</v>
+        <v>971.62599999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.086400</v>
+        <v>-79.086399999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>23676.827502</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.576897</v>
+        <v>6.5768969999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.563000</v>
+        <v>979.56299999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.526500</v>
+        <v>-90.526499999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>23687.935439</v>
+        <v>23687.935439000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.579982</v>
+        <v>6.5799820000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>989.218000</v>
+        <v>989.21799999999996</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.066000</v>
+        <v>-108.066</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>23698.954034</v>
+        <v>23698.954033999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>6.583043</v>
       </c>
       <c r="BA17" s="1">
-        <v>997.316000</v>
+        <v>997.31600000000003</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.652000</v>
+        <v>-123.652</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>23709.981090</v>
+        <v>23709.981090000001</v>
       </c>
       <c r="BE17" s="1">
         <v>6.586106</v>
       </c>
       <c r="BF17" s="1">
-        <v>1035.390000</v>
+        <v>1035.3900000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.690000</v>
+        <v>-195.69</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>23720.926340</v>
+        <v>23720.926340000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.589146</v>
+        <v>6.5891460000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1101.590000</v>
+        <v>1101.5899999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-312.820000</v>
+        <v>-312.82</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>23732.464742</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.592351</v>
+        <v>6.5923509999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-497.174000</v>
+        <v>-497.17399999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>23743.125782</v>
+        <v>23743.125781999999</v>
       </c>
       <c r="BT17" s="1">
         <v>6.595313</v>
       </c>
       <c r="BU17" s="1">
-        <v>1330.910000</v>
+        <v>1330.91</v>
       </c>
       <c r="BV17" s="1">
-        <v>-699.297000</v>
+        <v>-699.29700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>23754.289242</v>
+        <v>23754.289241999999</v>
       </c>
       <c r="BY17" s="1">
         <v>6.598414</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1467.090000</v>
+        <v>1467.09</v>
       </c>
       <c r="CA17" s="1">
-        <v>-914.462000</v>
+        <v>-914.46199999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>23767.201100</v>
+        <v>23767.201099999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>6.602000</v>
+        <v>6.6020000000000003</v>
       </c>
       <c r="CE17" s="1">
-        <v>1822.970000</v>
+        <v>1822.97</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1425.840000</v>
+        <v>-1425.84</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>23594.177147</v>
+        <v>23594.177146999999</v>
       </c>
       <c r="B18" s="1">
-        <v>6.553938</v>
+        <v>6.5539379999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>898.905000</v>
+        <v>898.90499999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.277000</v>
+        <v>-202.27699999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>23604.498894</v>
       </c>
       <c r="G18" s="1">
-        <v>6.556805</v>
+        <v>6.5568049999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>916.422000</v>
+        <v>916.42200000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-170.663000</v>
+        <v>-170.66300000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>23614.983825</v>
+        <v>23614.983824999999</v>
       </c>
       <c r="L18" s="1">
-        <v>6.559718</v>
+        <v>6.5597180000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>939.799000</v>
+        <v>939.79899999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.671000</v>
+        <v>-120.67100000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>23625.226210</v>
+        <v>23625.226210000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.562563</v>
+        <v>6.5625629999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>946.531000</v>
+        <v>946.53099999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.136000</v>
+        <v>-104.136</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>23635.429910</v>
+        <v>23635.429909999999</v>
       </c>
       <c r="V18" s="1">
-        <v>6.565397</v>
+        <v>6.5653969999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>953.011000</v>
+        <v>953.01099999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.769400</v>
+        <v>-88.769400000000005</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>23645.647991</v>
+        <v>23645.647991000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.568236</v>
+        <v>6.5682359999999997</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.963000</v>
+        <v>959.96299999999997</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.902900</v>
+        <v>-76.902900000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>23655.789690</v>
+        <v>23655.789690000001</v>
       </c>
       <c r="AF18" s="1">
         <v>6.571053</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.583000</v>
+        <v>964.58299999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.530700</v>
+        <v>-74.530699999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>23666.018188</v>
+        <v>23666.018187999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.573894</v>
+        <v>6.5738940000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.645000</v>
+        <v>971.64499999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.101100</v>
+        <v>-79.101100000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>23677.205987</v>
+        <v>23677.205987000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.577002</v>
+        <v>6.5770020000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.555000</v>
+        <v>979.55499999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.538600</v>
+        <v>-90.538600000000002</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>23688.299472</v>
+        <v>23688.299471999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.580083</v>
+        <v>6.5800830000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>989.202000</v>
+        <v>989.202</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.078000</v>
+        <v>-108.078</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>23699.311152</v>
+        <v>23699.311151999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.583142</v>
+        <v>6.5831419999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>997.325000</v>
+        <v>997.32500000000005</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.674000</v>
+        <v>-123.67400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>23710.657635</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.586294</v>
+        <v>6.5862939999999996</v>
       </c>
       <c r="BF18" s="1">
-        <v>1035.370000</v>
+        <v>1035.3699999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.706000</v>
+        <v>-195.70599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>23721.874671</v>
+        <v>23721.874671000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.589410</v>
+        <v>6.58941</v>
       </c>
       <c r="BK18" s="1">
-        <v>1101.600000</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-312.812000</v>
+        <v>-312.81200000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>23732.974628</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.592493</v>
+        <v>6.5924930000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-497.154000</v>
+        <v>-497.154</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>23743.537456</v>
+        <v>23743.537455999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.595427</v>
+        <v>6.5954269999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1330.960000</v>
+        <v>1330.96</v>
       </c>
       <c r="BV18" s="1">
-        <v>-699.229000</v>
+        <v>-699.22900000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>23754.709319</v>
+        <v>23754.709319000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.598530</v>
+        <v>6.5985300000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1467.100000</v>
+        <v>1467.1</v>
       </c>
       <c r="CA18" s="1">
-        <v>-914.553000</v>
+        <v>-914.553</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>23767.718391</v>
+        <v>23767.718390999999</v>
       </c>
       <c r="CD18" s="1">
         <v>6.602144</v>
       </c>
       <c r="CE18" s="1">
-        <v>1823.150000</v>
+        <v>1823.15</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1425.670000</v>
+        <v>-1425.67</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>23594.454944</v>
+        <v>23594.454944000001</v>
       </c>
       <c r="B19" s="1">
-        <v>6.554015</v>
+        <v>6.5540149999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>898.897000</v>
+        <v>898.89700000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.248000</v>
+        <v>-202.24799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>23604.845102</v>
+        <v>23604.845101999999</v>
       </c>
       <c r="G19" s="1">
-        <v>6.556901</v>
+        <v>6.5569009999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>916.881000</v>
+        <v>916.88099999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-170.791000</v>
+        <v>-170.791</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>23615.328544</v>
       </c>
       <c r="L19" s="1">
-        <v>6.559813</v>
+        <v>6.5598130000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>939.720000</v>
+        <v>939.72</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.677000</v>
+        <v>-120.67700000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>23625.578556</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.562661</v>
+        <v>6.5626610000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>946.563000</v>
+        <v>946.56299999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.163000</v>
+        <v>-104.163</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>23636.117364</v>
+        <v>23636.117364000002</v>
       </c>
       <c r="V19" s="1">
         <v>6.565588</v>
       </c>
       <c r="W19" s="1">
-        <v>953.015000</v>
+        <v>953.01499999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.825000</v>
+        <v>-88.825000000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>23646.346391</v>
+        <v>23646.346390999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.568430</v>
+        <v>6.5684300000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.976000</v>
+        <v>959.976</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.915700</v>
+        <v>-76.915700000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>23656.132437</v>
@@ -4940,437 +5356,437 @@
         <v>6.571148</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.580000</v>
+        <v>964.58</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.526600</v>
+        <v>-74.526600000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>23666.365885</v>
+        <v>23666.365884999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.573991</v>
+        <v>6.5739910000000004</v>
       </c>
       <c r="AL19" s="1">
-        <v>971.619000</v>
+        <v>971.61900000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.073500</v>
+        <v>-79.073499999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>23677.565086</v>
+        <v>23677.565085999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.577101</v>
+        <v>6.5771009999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>979.557000</v>
+        <v>979.55700000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.534400</v>
+        <v>-90.534400000000005</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>23688.970590</v>
+        <v>23688.970590000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.580270</v>
+        <v>6.5802699999999996</v>
       </c>
       <c r="AV19" s="1">
-        <v>989.224000</v>
+        <v>989.22400000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.071000</v>
+        <v>-108.071</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>23699.973343</v>
+        <v>23699.973343000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.583326</v>
+        <v>6.5833259999999996</v>
       </c>
       <c r="BA19" s="1">
-        <v>997.307000</v>
+        <v>997.30700000000002</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.677000</v>
+        <v>-123.67700000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>23711.097126</v>
+        <v>23711.097126000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.586416</v>
+        <v>6.5864159999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1035.380000</v>
+        <v>1035.3800000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.683000</v>
+        <v>-195.68299999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>23722.100339</v>
+        <v>23722.100339000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.589472</v>
+        <v>6.5894719999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1101.620000</v>
+        <v>1101.6199999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-312.827000</v>
+        <v>-312.827</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>23733.390276</v>
+        <v>23733.390275999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.592608</v>
+        <v>6.5926080000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1209.690000</v>
+        <v>1209.69</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-497.145000</v>
+        <v>-497.14499999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>23743.971465</v>
+        <v>23743.971464999999</v>
       </c>
       <c r="BT19" s="1">
         <v>6.595548</v>
       </c>
       <c r="BU19" s="1">
-        <v>1330.990000</v>
+        <v>1330.99</v>
       </c>
       <c r="BV19" s="1">
-        <v>-699.171000</v>
+        <v>-699.17100000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>23755.134392</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.598648</v>
+        <v>6.5986479999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1467.160000</v>
+        <v>1467.16</v>
       </c>
       <c r="CA19" s="1">
-        <v>-914.458000</v>
+        <v>-914.45799999999997</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>23768.269445</v>
+        <v>23768.269445000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.602297</v>
+        <v>6.6022970000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1823.720000</v>
+        <v>1823.72</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1425.580000</v>
+        <v>-1425.58</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>23594.797851</v>
+        <v>23594.797850999999</v>
       </c>
       <c r="B20" s="1">
-        <v>6.554111</v>
+        <v>6.5541109999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>898.826000</v>
+        <v>898.82600000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.146000</v>
+        <v>-202.14599999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>23605.186846</v>
+        <v>23605.186846000001</v>
       </c>
       <c r="G20" s="1">
-        <v>6.556996</v>
+        <v>6.5569959999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>916.650000</v>
+        <v>916.65</v>
       </c>
       <c r="I20" s="1">
-        <v>-170.844000</v>
+        <v>-170.84399999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>23615.999667</v>
       </c>
       <c r="L20" s="1">
-        <v>6.560000</v>
+        <v>6.56</v>
       </c>
       <c r="M20" s="1">
-        <v>939.953000</v>
+        <v>939.95299999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.787000</v>
+        <v>-120.78700000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>23626.273297</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.562854</v>
+        <v>6.5628539999999997</v>
       </c>
       <c r="R20" s="1">
-        <v>946.553000</v>
+        <v>946.553</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.161000</v>
+        <v>-104.161</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>23636.460729</v>
+        <v>23636.460728999999</v>
       </c>
       <c r="V20" s="1">
-        <v>6.565684</v>
+        <v>6.5656840000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>953.018000</v>
+        <v>953.01800000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.845400</v>
+        <v>-88.845399999999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>23646.694093</v>
+        <v>23646.694092999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.568526</v>
+        <v>6.5685260000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.026000</v>
+        <v>960.02599999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.917600</v>
+        <v>-76.917599999999993</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>23656.476682</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.571244</v>
+        <v>6.5712440000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.560000</v>
+        <v>964.56</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.532400</v>
+        <v>-74.532399999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>23666.716061</v>
+        <v>23666.716060999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.574088</v>
+        <v>6.5740879999999997</v>
       </c>
       <c r="AL20" s="1">
-        <v>971.638000</v>
+        <v>971.63800000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.090400</v>
+        <v>-79.090400000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>23678.232172</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.577287</v>
+        <v>6.5772870000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.557000</v>
+        <v>979.55700000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.539200</v>
+        <v>-90.539199999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>23689.426911</v>
+        <v>23689.426910999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.580396</v>
+        <v>6.5803960000000004</v>
       </c>
       <c r="AV20" s="1">
-        <v>989.229000</v>
+        <v>989.22900000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.060000</v>
+        <v>-108.06</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>23700.422191</v>
+        <v>23700.422191000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.583451</v>
+        <v>6.5834510000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>997.329000</v>
+        <v>997.32899999999995</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.661000</v>
+        <v>-123.661</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>23711.460160</v>
+        <v>23711.460159999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.586517</v>
+        <v>6.5865169999999997</v>
       </c>
       <c r="BF20" s="1">
-        <v>1035.380000</v>
+        <v>1035.3800000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.666000</v>
+        <v>-195.666</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>23722.453986</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.589571</v>
+        <v>6.5895710000000003</v>
       </c>
       <c r="BK20" s="1">
-        <v>1101.620000</v>
+        <v>1101.6199999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-312.816000</v>
+        <v>-312.81599999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>23733.789587</v>
+        <v>23733.789586999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.592719</v>
+        <v>6.5927189999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1209.690000</v>
+        <v>1209.69</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-497.181000</v>
+        <v>-497.18099999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>23744.398981</v>
+        <v>23744.398980999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.595666</v>
+        <v>6.5956659999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>1330.920000</v>
+        <v>1330.92</v>
       </c>
       <c r="BV20" s="1">
-        <v>-698.974000</v>
+        <v>-698.97400000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>23755.584758</v>
+        <v>23755.584758000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.598774</v>
+        <v>6.5987739999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1467.120000</v>
+        <v>1467.12</v>
       </c>
       <c r="CA20" s="1">
-        <v>-914.508000</v>
+        <v>-914.50800000000004</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>23768.799669</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.602444</v>
+        <v>6.6024440000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1822.690000</v>
+        <v>1822.69</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1425.660000</v>
+        <v>-1425.66</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>23595.138890</v>
+        <v>23595.138889999998</v>
       </c>
       <c r="B21" s="1">
-        <v>6.554205</v>
+        <v>6.5542049999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>898.751000</v>
+        <v>898.75099999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.217000</v>
+        <v>-202.21700000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>23605.877773</v>
@@ -5379,43 +5795,43 @@
         <v>6.557188</v>
       </c>
       <c r="H21" s="1">
-        <v>916.626000</v>
+        <v>916.62599999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.099000</v>
+        <v>-171.09899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>23616.363695</v>
       </c>
       <c r="L21" s="1">
-        <v>6.560101</v>
+        <v>6.5601010000000004</v>
       </c>
       <c r="M21" s="1">
-        <v>940.044000</v>
+        <v>940.04399999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.868000</v>
+        <v>-120.86799999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>23626.622983</v>
+        <v>23626.622983000001</v>
       </c>
       <c r="Q21" s="1">
         <v>6.562951</v>
       </c>
       <c r="R21" s="1">
-        <v>946.521000</v>
+        <v>946.52099999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.200000</v>
+        <v>-104.2</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>23636.803859</v>
@@ -5424,739 +5840,739 @@
         <v>6.565779</v>
       </c>
       <c r="W21" s="1">
-        <v>953.011000</v>
+        <v>953.01099999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.809200</v>
+        <v>-88.809200000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>23647.042246</v>
+        <v>23647.042246000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.568623</v>
+        <v>6.5686229999999997</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.834000</v>
+        <v>959.83399999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.900200</v>
+        <v>-76.900199999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>23657.128420</v>
+        <v>23657.128420000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.571425</v>
+        <v>6.5714249999999996</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.568000</v>
+        <v>964.56799999999998</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.559200</v>
+        <v>-74.559200000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>23667.378256</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.574272</v>
+        <v>6.5742719999999997</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.630000</v>
+        <v>971.63</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.076900</v>
+        <v>-79.076899999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>23678.644348</v>
+        <v>23678.644348000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.577401</v>
+        <v>6.5774010000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>979.548000</v>
+        <v>979.548</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.507800</v>
+        <v>-90.507800000000003</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>23689.794941</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.580499</v>
+        <v>6.5804989999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>989.219000</v>
+        <v>989.21900000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.059000</v>
+        <v>-108.059</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>23700.777822</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.583549</v>
+        <v>6.5835489999999997</v>
       </c>
       <c r="BA21" s="1">
-        <v>997.322000</v>
+        <v>997.322</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.661000</v>
+        <v>-123.661</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>23711.820641</v>
+        <v>23711.820640999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.586617</v>
+        <v>6.5866170000000004</v>
       </c>
       <c r="BF21" s="1">
-        <v>1035.390000</v>
+        <v>1035.3900000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.690000</v>
+        <v>-195.69</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>23722.874629</v>
+        <v>23722.874629000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.589687</v>
+        <v>6.5896869999999996</v>
       </c>
       <c r="BK21" s="1">
-        <v>1101.600000</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-312.807000</v>
+        <v>-312.80700000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>23734.209666</v>
+        <v>23734.209665999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.592836</v>
+        <v>6.5928360000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1209.680000</v>
+        <v>1209.68</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-497.119000</v>
+        <v>-497.11900000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>23744.812148</v>
+        <v>23744.812148000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.595781</v>
+        <v>6.5957809999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>1330.960000</v>
+        <v>1330.96</v>
       </c>
       <c r="BV21" s="1">
-        <v>-699.018000</v>
+        <v>-699.01800000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>23756.015323</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.598893</v>
+        <v>6.5988930000000003</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1467.250000</v>
+        <v>1467.25</v>
       </c>
       <c r="CA21" s="1">
-        <v>-914.473000</v>
+        <v>-914.47299999999996</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>23769.318025</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.602588</v>
+        <v>6.6025879999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1822.880000</v>
+        <v>1822.88</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1426.910000</v>
+        <v>-1426.91</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>23595.818905</v>
       </c>
       <c r="B22" s="1">
-        <v>6.554394</v>
+        <v>6.5543940000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>898.784000</v>
+        <v>898.78399999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.291000</v>
+        <v>-202.291</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>23606.219518</v>
+        <v>23606.219518000002</v>
       </c>
       <c r="G22" s="1">
         <v>6.557283</v>
       </c>
       <c r="H22" s="1">
-        <v>916.683000</v>
+        <v>916.68299999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-170.947000</v>
+        <v>-170.947</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>23616.710397</v>
+        <v>23616.710396999999</v>
       </c>
       <c r="L22" s="1">
-        <v>6.560197</v>
+        <v>6.5601969999999996</v>
       </c>
       <c r="M22" s="1">
-        <v>939.797000</v>
+        <v>939.79700000000003</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.758000</v>
+        <v>-120.758</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>23626.972623</v>
+        <v>23626.972623000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.563048</v>
+        <v>6.5630480000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>946.528000</v>
+        <v>946.52800000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.179000</v>
+        <v>-104.179</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>23637.455570</v>
+        <v>23637.455569999998</v>
       </c>
       <c r="V22" s="1">
-        <v>6.565960</v>
+        <v>6.5659599999999996</v>
       </c>
       <c r="W22" s="1">
-        <v>953.040000</v>
+        <v>953.04</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.794100</v>
+        <v>-88.7941</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>23647.707419</v>
+        <v>23647.707418999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.568808</v>
+        <v>6.5688079999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.972000</v>
+        <v>959.97199999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.914100</v>
+        <v>-76.914100000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>23657.507336</v>
+        <v>23657.507335999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.571530</v>
+        <v>6.5715300000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.624000</v>
+        <v>964.62400000000002</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.506600</v>
+        <v>-74.506600000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>23667.763114</v>
+        <v>23667.763114000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.574379</v>
+        <v>6.5743790000000004</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.633000</v>
+        <v>971.63300000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.080600</v>
+        <v>-79.080600000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>23679.028284</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.577508</v>
+        <v>6.5775079999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.561000</v>
+        <v>979.56100000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.531800</v>
+        <v>-90.531800000000004</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>23690.158476</v>
+        <v>23690.158476000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.580600</v>
+        <v>6.5805999999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>989.216000</v>
+        <v>989.21600000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.088000</v>
+        <v>-108.08799999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>23701.138910</v>
+        <v>23701.138910000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.583650</v>
+        <v>6.5836499999999996</v>
       </c>
       <c r="BA22" s="1">
-        <v>997.331000</v>
+        <v>997.33100000000002</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.667000</v>
+        <v>-123.667</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>23712.227015</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.586730</v>
+        <v>6.5867300000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1035.370000</v>
+        <v>1035.3699999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.707000</v>
+        <v>-195.70699999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>23723.231218</v>
+        <v>23723.231218000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.589786</v>
+        <v>6.5897860000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1101.610000</v>
+        <v>1101.6099999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-312.837000</v>
+        <v>-312.83699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>23734.609938</v>
+        <v>23734.609938000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.592947</v>
+        <v>6.5929469999999997</v>
       </c>
       <c r="BP22" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-497.130000</v>
+        <v>-497.13</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>23745.240196</v>
+        <v>23745.240195999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.595900</v>
+        <v>6.5959000000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1331.000000</v>
+        <v>1331</v>
       </c>
       <c r="BV22" s="1">
-        <v>-698.945000</v>
+        <v>-698.94500000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>23756.434902</v>
+        <v>23756.434902000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.599010</v>
+        <v>6.5990099999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1467.090000</v>
+        <v>1467.09</v>
       </c>
       <c r="CA22" s="1">
-        <v>-914.521000</v>
+        <v>-914.52099999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>23769.835811</v>
+        <v>23769.835811000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.602732</v>
+        <v>6.6027319999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>1823.850000</v>
+        <v>1823.85</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1426.390000</v>
+        <v>-1426.39</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>23596.164620</v>
+        <v>23596.16462</v>
       </c>
       <c r="B23" s="1">
-        <v>6.554490</v>
+        <v>6.5544900000000004</v>
       </c>
       <c r="C23" s="1">
-        <v>898.788000</v>
+        <v>898.78800000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.049000</v>
+        <v>-202.04900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>23606.567211</v>
+        <v>23606.567211000001</v>
       </c>
       <c r="G23" s="1">
-        <v>6.557380</v>
+        <v>6.5573800000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>916.532000</v>
+        <v>916.53200000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-170.795000</v>
+        <v>-170.79499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>23617.360652</v>
+        <v>23617.360651999999</v>
       </c>
       <c r="L23" s="1">
         <v>6.560378</v>
       </c>
       <c r="M23" s="1">
-        <v>940.023000</v>
+        <v>940.02300000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.930000</v>
+        <v>-120.93</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>23627.626351</v>
+        <v>23627.626350999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.563230</v>
+        <v>6.5632299999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>946.538000</v>
+        <v>946.53800000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.136000</v>
+        <v>-104.136</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>23637.835010</v>
+        <v>23637.835009999999</v>
       </c>
       <c r="V23" s="1">
         <v>6.566065</v>
       </c>
       <c r="W23" s="1">
-        <v>952.951000</v>
+        <v>952.95100000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.743900</v>
+        <v>-88.743899999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>23648.091812</v>
+        <v>23648.091811999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.568914</v>
+        <v>6.5689140000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.938000</v>
+        <v>959.93799999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.945900</v>
+        <v>-76.945899999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>23657.851560</v>
+        <v>23657.851559999999</v>
       </c>
       <c r="AF23" s="1">
         <v>6.571625</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.601000</v>
+        <v>964.601</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.533100</v>
+        <v>-74.533100000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>23668.111307</v>
+        <v>23668.111306999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.574475</v>
+        <v>6.5744749999999996</v>
       </c>
       <c r="AL23" s="1">
-        <v>971.617000</v>
+        <v>971.61699999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.072400</v>
+        <v>-79.072400000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>23679.389349</v>
+        <v>23679.389349000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.577608</v>
+        <v>6.5776079999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>979.542000</v>
+        <v>979.54200000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.530400</v>
+        <v>-90.5304</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>23690.570685</v>
+        <v>23690.570684999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.580714</v>
+        <v>6.5807140000000004</v>
       </c>
       <c r="AV23" s="1">
-        <v>989.219000</v>
+        <v>989.21900000000005</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.053000</v>
+        <v>-108.053</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>23701.558563</v>
+        <v>23701.558562999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.583766</v>
+        <v>6.5837659999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>997.326000</v>
+        <v>997.32600000000002</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.639000</v>
+        <v>-123.639</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>23712.542927</v>
+        <v>23712.542926999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.586817</v>
+        <v>6.5868169999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1035.370000</v>
+        <v>1035.3699999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.705000</v>
+        <v>-195.70500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>23723.606721</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.589891</v>
+        <v>6.5898909999999997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1101.590000</v>
+        <v>1101.5899999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-312.812000</v>
+        <v>-312.81200000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>23735.030545</v>
+        <v>23735.030545000001</v>
       </c>
       <c r="BO23" s="1">
         <v>6.593064</v>
       </c>
       <c r="BP23" s="1">
-        <v>1209.690000</v>
+        <v>1209.69</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-497.165000</v>
+        <v>-497.16500000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>23745.670754</v>
+        <v>23745.670753999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.596020</v>
+        <v>6.5960200000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1331.110000</v>
+        <v>1331.11</v>
       </c>
       <c r="BV23" s="1">
-        <v>-698.951000</v>
+        <v>-698.95100000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>23756.848068</v>
+        <v>23756.848067999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.599124</v>
+        <v>6.5991239999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1467.120000</v>
+        <v>1467.12</v>
       </c>
       <c r="CA23" s="1">
-        <v>-914.495000</v>
+        <v>-914.495</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>23770.352179</v>
+        <v>23770.352179000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.602876</v>
+        <v>6.6028760000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1823.610000</v>
+        <v>1823.61</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1427.110000</v>
+        <v>-1427.11</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>23596.506889</v>
       </c>
       <c r="B24" s="1">
-        <v>6.554585</v>
+        <v>6.5545850000000003</v>
       </c>
       <c r="C24" s="1">
-        <v>898.773000</v>
+        <v>898.77300000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.094000</v>
+        <v>-202.09399999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>23607.222922</v>
+        <v>23607.222922000001</v>
       </c>
       <c r="G24" s="1">
-        <v>6.557562</v>
+        <v>6.5575619999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>916.534000</v>
+        <v>916.53399999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-170.951000</v>
+        <v>-170.95099999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>23617.749021</v>
@@ -6165,647 +6581,647 @@
         <v>6.560486</v>
       </c>
       <c r="M24" s="1">
-        <v>939.729000</v>
+        <v>939.72900000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.667000</v>
+        <v>-120.667</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>23628.018190</v>
+        <v>23628.018189999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.563338</v>
+        <v>6.5633379999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>946.571000</v>
+        <v>946.57100000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.132000</v>
+        <v>-104.13200000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>23638.180225</v>
       </c>
       <c r="V24" s="1">
-        <v>6.566161</v>
+        <v>6.5661610000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>953.005000</v>
+        <v>953.005</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.761600</v>
+        <v>-88.761600000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>23648.436501</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.569010</v>
+        <v>6.5690099999999996</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.080000</v>
+        <v>960.08</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.891100</v>
+        <v>-76.891099999999994</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>23658.200742</v>
+        <v>23658.200742000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.571722</v>
+        <v>6.5717220000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.600000</v>
+        <v>964.6</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.569300</v>
+        <v>-74.569299999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>23668.513593</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.574587</v>
+        <v>6.5745870000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>971.638000</v>
+        <v>971.63800000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.100200</v>
+        <v>-79.100200000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>23679.807469</v>
+        <v>23679.807468999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.577724</v>
+        <v>6.5777239999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.540000</v>
+        <v>979.54</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.536800</v>
+        <v>-90.536799999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>23690.887099</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.580802</v>
+        <v>6.5808020000000003</v>
       </c>
       <c r="AV24" s="1">
-        <v>989.231000</v>
+        <v>989.23099999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.070000</v>
+        <v>-108.07</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>23701.856162</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.583849</v>
+        <v>6.5838489999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>997.319000</v>
+        <v>997.31899999999996</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.658000</v>
+        <v>-123.658</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>23712.900046</v>
+        <v>23712.900045999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>6.586917</v>
+        <v>6.5869169999999997</v>
       </c>
       <c r="BF24" s="1">
-        <v>1035.360000</v>
+        <v>1035.3599999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.714000</v>
+        <v>-195.714</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>23723.981169</v>
+        <v>23723.981168999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>6.589995</v>
       </c>
       <c r="BK24" s="1">
-        <v>1101.600000</v>
+        <v>1101.5999999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-312.822000</v>
+        <v>-312.822</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>23735.427345</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.593174</v>
+        <v>6.5931740000000003</v>
       </c>
       <c r="BP24" s="1">
-        <v>1209.680000</v>
+        <v>1209.68</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-497.116000</v>
+        <v>-497.11599999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>23746.096786</v>
+        <v>23746.096785999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>6.596138</v>
+        <v>6.5961379999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1331.160000</v>
+        <v>1331.16</v>
       </c>
       <c r="BV24" s="1">
-        <v>-698.896000</v>
+        <v>-698.89599999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>23757.699217</v>
+        <v>23757.699217000001</v>
       </c>
       <c r="BY24" s="1">
         <v>6.599361</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1467.120000</v>
+        <v>1467.12</v>
       </c>
       <c r="CA24" s="1">
-        <v>-914.541000</v>
+        <v>-914.54100000000005</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>23770.906673</v>
+        <v>23770.906673000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.603030</v>
+        <v>6.6030300000000004</v>
       </c>
       <c r="CE24" s="1">
-        <v>1823.280000</v>
+        <v>1823.28</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1426.770000</v>
+        <v>-1426.77</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>23597.180424</v>
+        <v>23597.180423999998</v>
       </c>
       <c r="B25" s="1">
-        <v>6.554772</v>
+        <v>6.5547719999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>898.776000</v>
+        <v>898.77599999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.090000</v>
+        <v>-202.09</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>23607.603849</v>
+        <v>23607.603848999999</v>
       </c>
       <c r="G25" s="1">
-        <v>6.557668</v>
+        <v>6.5576679999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>916.599000</v>
+        <v>916.59900000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>-170.954000</v>
+        <v>-170.95400000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>23618.095227</v>
+        <v>23618.095227000002</v>
       </c>
       <c r="L25" s="1">
-        <v>6.560582</v>
+        <v>6.5605820000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>939.943000</v>
+        <v>939.94299999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.813000</v>
+        <v>-120.813</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>23628.368367</v>
+        <v>23628.368366999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.563436</v>
+        <v>6.5634360000000003</v>
       </c>
       <c r="R25" s="1">
-        <v>946.577000</v>
+        <v>946.577</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.179000</v>
+        <v>-104.179</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>23638.528949</v>
       </c>
       <c r="V25" s="1">
-        <v>6.566258</v>
+        <v>6.5662580000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>953.029000</v>
+        <v>953.029</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.798900</v>
+        <v>-88.798900000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>23648.786179</v>
+        <v>23648.786178999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.569107</v>
+        <v>6.5691069999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.014000</v>
+        <v>960.01400000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.865800</v>
+        <v>-76.865799999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>23658.611430</v>
+        <v>23658.611430000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.571837</v>
+        <v>6.5718370000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.567000</v>
+        <v>964.56700000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.527000</v>
+        <v>-74.527000000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>23669.154921</v>
+        <v>23669.154921000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.574765</v>
+        <v>6.5747650000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>971.639000</v>
+        <v>971.63900000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.059400</v>
+        <v>-79.059399999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>23680.109071</v>
+        <v>23680.109070999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.577808</v>
+        <v>6.5778080000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>979.559000</v>
+        <v>979.55899999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.528500</v>
+        <v>-90.528499999999994</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>23691.251691</v>
+        <v>23691.251691000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.580903</v>
+        <v>6.5809030000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>989.232000</v>
+        <v>989.23199999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.052000</v>
+        <v>-108.05200000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>23702.214733</v>
+        <v>23702.214733000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.583949</v>
+        <v>6.5839489999999996</v>
       </c>
       <c r="BA25" s="1">
-        <v>997.333000</v>
+        <v>997.33299999999997</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.650000</v>
+        <v>-123.65</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>23713.263648</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.587018</v>
+        <v>6.5870179999999996</v>
       </c>
       <c r="BF25" s="1">
-        <v>1035.390000</v>
+        <v>1035.3900000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.680000</v>
+        <v>-195.68</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>23724.755423</v>
+        <v>23724.755422999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.590210</v>
+        <v>6.5902099999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1101.620000</v>
+        <v>1101.6199999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-312.807000</v>
+        <v>-312.80700000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>23735.847952</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.593291</v>
+        <v>6.5932909999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-497.157000</v>
+        <v>-497.15699999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>23746.512434</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.596253</v>
+        <v>6.5962529999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1331.230000</v>
+        <v>1331.23</v>
       </c>
       <c r="BV25" s="1">
-        <v>-698.932000</v>
+        <v>-698.93200000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>23758.126793</v>
+        <v>23758.126792999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.599480</v>
+        <v>6.5994799999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1467.150000</v>
+        <v>1467.15</v>
       </c>
       <c r="CA25" s="1">
-        <v>-914.533000</v>
+        <v>-914.53300000000002</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>23771.435905</v>
+        <v>23771.435904999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.603177</v>
+        <v>6.6031769999999996</v>
       </c>
       <c r="CE25" s="1">
-        <v>1824.040000</v>
+        <v>1824.04</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1426.110000</v>
+        <v>-1426.11</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>23597.533576</v>
+        <v>23597.533576000002</v>
       </c>
       <c r="B26" s="1">
-        <v>6.554870</v>
+        <v>6.5548700000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>898.887000</v>
+        <v>898.88699999999994</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.304000</v>
+        <v>-202.304</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>23607.945097</v>
       </c>
       <c r="G26" s="1">
-        <v>6.557763</v>
+        <v>6.5577629999999996</v>
       </c>
       <c r="H26" s="1">
-        <v>916.810000</v>
+        <v>916.81</v>
       </c>
       <c r="I26" s="1">
-        <v>-170.815000</v>
+        <v>-170.815</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>23618.441436</v>
+        <v>23618.441436000001</v>
       </c>
       <c r="L26" s="1">
-        <v>6.560678</v>
+        <v>6.5606780000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>939.927000</v>
+        <v>939.92700000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.763000</v>
+        <v>-120.76300000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>23628.716062</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.563532</v>
+        <v>6.5635320000000004</v>
       </c>
       <c r="R26" s="1">
-        <v>946.539000</v>
+        <v>946.53899999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.181000</v>
+        <v>-104.181</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>23638.952528</v>
+        <v>23638.952528000002</v>
       </c>
       <c r="V26" s="1">
         <v>6.566376</v>
       </c>
       <c r="W26" s="1">
-        <v>953.038000</v>
+        <v>953.03800000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.812000</v>
+        <v>-88.811999999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>23649.218194</v>
+        <v>23649.218194000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.569227</v>
+        <v>6.5692269999999997</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.013000</v>
+        <v>960.01300000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.803900</v>
+        <v>-76.803899999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>23658.904598</v>
+        <v>23658.904598000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.571918</v>
+        <v>6.5719180000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.617000</v>
+        <v>964.61699999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.531500</v>
+        <v>-74.531499999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>23669.505064</v>
+        <v>23669.505064000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.574863</v>
+        <v>6.5748629999999997</v>
       </c>
       <c r="AL26" s="1">
-        <v>971.632000</v>
+        <v>971.63199999999995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.071900</v>
+        <v>-79.071899999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>23680.470121</v>
+        <v>23680.470120999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.577908</v>
+        <v>6.5779079999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>979.554000</v>
+        <v>979.55399999999997</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.527700</v>
+        <v>-90.527699999999996</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>23691.616219</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.581005</v>
+        <v>6.5810050000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>989.220000</v>
+        <v>989.22</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.060000</v>
+        <v>-108.06</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>23702.575324</v>
+        <v>23702.575324000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.584049</v>
+        <v>6.5840490000000003</v>
       </c>
       <c r="BA26" s="1">
-        <v>997.298000</v>
+        <v>997.298</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.635000</v>
+        <v>-123.63500000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>23713.986299</v>
@@ -6814,90 +7230,91 @@
         <v>6.587218</v>
       </c>
       <c r="BF26" s="1">
-        <v>1035.380000</v>
+        <v>1035.3800000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.703000</v>
+        <v>-195.703</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>23725.127454</v>
+        <v>23725.127454000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.590313</v>
+        <v>6.5903130000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1101.580000</v>
+        <v>1101.58</v>
       </c>
       <c r="BL26" s="1">
-        <v>-312.789000</v>
+        <v>-312.78899999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>23736.242304</v>
+        <v>23736.242303999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.593401</v>
+        <v>6.5934010000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1209.670000</v>
+        <v>1209.67</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-497.170000</v>
+        <v>-497.17</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>23746.940514</v>
+        <v>23746.940514000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.596372</v>
+        <v>6.5963719999999997</v>
       </c>
       <c r="BU26" s="1">
-        <v>1331.260000</v>
+        <v>1331.26</v>
       </c>
       <c r="BV26" s="1">
-        <v>-698.823000</v>
+        <v>-698.82299999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>23758.858354</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.599683</v>
+        <v>6.5996829999999997</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1467.060000</v>
+        <v>1467.06</v>
       </c>
       <c r="CA26" s="1">
-        <v>-914.499000</v>
+        <v>-914.49900000000002</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>23772.258272</v>
+        <v>23772.258271999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.603405</v>
+        <v>6.6034050000000004</v>
       </c>
       <c r="CE26" s="1">
-        <v>1823.240000</v>
+        <v>1823.24</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1425.120000</v>
+        <v>-1425.12</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>